--- a/zh-cn/application-dev/reference/apis-arkui/figures/getInspectorInfo返回结果$attrs映射表.xlsx
+++ b/zh-cn/application-dev/reference/apis-arkui/figures/getInspectorInfo返回结果$attrs映射表.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="21000" windowHeight="11775"/>
+    <workbookView windowWidth="28800" windowHeight="12375"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="249">
   <si>
     <t>组件类型</t>
   </si>
@@ -41,16 +41,739 @@
     <t>Button</t>
   </si>
   <si>
-    <t>borderStyle</t>
-  </si>
-  <si>
-    <t>边框样式</t>
-  </si>
-  <si>
-    <t>borderColor</t>
-  </si>
-  <si>
-    <t>边框颜色</t>
+    <t>type</t>
+  </si>
+  <si>
+    <t>Button样式</t>
+  </si>
+  <si>
+    <t>fontSize</t>
+  </si>
+  <si>
+    <t>文本显示字号</t>
+  </si>
+  <si>
+    <t>fontWeight</t>
+  </si>
+  <si>
+    <t>文本的字体粗细</t>
+  </si>
+  <si>
+    <t>fontColor</t>
+  </si>
+  <si>
+    <t>文本显示颜色</t>
+  </si>
+  <si>
+    <t>fontStyle</t>
+  </si>
+  <si>
+    <t>文本的字体样式</t>
+  </si>
+  <si>
+    <t>label</t>
+  </si>
+  <si>
+    <t>按钮文本内容</t>
+  </si>
+  <si>
+    <t>stateEffect</t>
+  </si>
+  <si>
+    <t>按钮按下时是否开启按压态显示效果</t>
+  </si>
+  <si>
+    <t>options</t>
+  </si>
+  <si>
+    <t>按钮的显示样式</t>
+  </si>
+  <si>
+    <t>checkbox</t>
+  </si>
+  <si>
+    <t>name</t>
+  </si>
+  <si>
+    <t>group</t>
+  </si>
+  <si>
+    <t>所属群组的名称</t>
+  </si>
+  <si>
+    <t>toggle状态</t>
+  </si>
+  <si>
+    <t>select</t>
+  </si>
+  <si>
+    <t>选中状态</t>
+  </si>
+  <si>
+    <t>selectedColor</t>
+  </si>
+  <si>
+    <t>设置被选中或部分选中状态的颜色</t>
+  </si>
+  <si>
+    <t>checkboxShape</t>
+  </si>
+  <si>
+    <t>设置CheckboxGroup组件形状，包括圆形和圆角方形</t>
+  </si>
+  <si>
+    <t>unselectedColor</t>
+  </si>
+  <si>
+    <t>设置非选中状态边框颜色</t>
+  </si>
+  <si>
+    <t>strokeColor</t>
+  </si>
+  <si>
+    <t>内部图标颜色</t>
+  </si>
+  <si>
+    <t>size</t>
+  </si>
+  <si>
+    <t>内部图标大小</t>
+  </si>
+  <si>
+    <t>strokeWidth</t>
+  </si>
+  <si>
+    <t>内部图标粗细</t>
+  </si>
+  <si>
+    <t>mark</t>
+  </si>
+  <si>
+    <t>设置多选框内部图标样式</t>
+  </si>
+  <si>
+    <t>checkboxgroup</t>
+  </si>
+  <si>
+    <t>selectAll</t>
+  </si>
+  <si>
+    <t>设置是否全选</t>
+  </si>
+  <si>
+    <t>radio</t>
+  </si>
+  <si>
+    <t>value</t>
+  </si>
+  <si>
+    <t>当前单选框的值</t>
+  </si>
+  <si>
+    <t>当前单选框的所属群组名称</t>
+  </si>
+  <si>
+    <t>checked</t>
+  </si>
+  <si>
+    <t>设置单选框的选中状态</t>
+  </si>
+  <si>
+    <t>checkedBackgroundColor</t>
+  </si>
+  <si>
+    <t>开启状态底板颜色</t>
+  </si>
+  <si>
+    <t>uncheckedBorderColor</t>
+  </si>
+  <si>
+    <t>关闭状态描边颜色</t>
+  </si>
+  <si>
+    <t>indicatorColor</t>
+  </si>
+  <si>
+    <t>开启状态内部圆饼颜色</t>
+  </si>
+  <si>
+    <t>indicatorType</t>
+  </si>
+  <si>
+    <t>配置单选框的选中样式</t>
+  </si>
+  <si>
+    <t>radioStyle</t>
+  </si>
+  <si>
+    <t>设置单选框选中状态和非选中状态的样式</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>foregroundUri</t>
+  </si>
+  <si>
+    <t>选中的星级的图片</t>
+  </si>
+  <si>
+    <t>secondaryUri</t>
+  </si>
+  <si>
+    <t>部分选中的星级的图片路径</t>
+  </si>
+  <si>
+    <t>backgroundUri</t>
+  </si>
+  <si>
+    <t>未选中的星级的图片</t>
+  </si>
+  <si>
+    <t>indicator</t>
+  </si>
+  <si>
+    <t>设置评分组件作为指示器使用，不可改变评分</t>
+  </si>
+  <si>
+    <t>stars</t>
+  </si>
+  <si>
+    <t>设置评分总数</t>
+  </si>
+  <si>
+    <t>starStyle</t>
+  </si>
+  <si>
+    <t>设置评分的样式</t>
+  </si>
+  <si>
+    <t>设置并接收评分值</t>
+  </si>
+  <si>
+    <t>stepSize</t>
+  </si>
+  <si>
+    <t>设置操作评级的步长</t>
+  </si>
+  <si>
+    <t>设置下拉选项</t>
+  </si>
+  <si>
+    <t>selected</t>
+  </si>
+  <si>
+    <t>设置下拉菜单初始选项的索引</t>
+  </si>
+  <si>
+    <t>selectedOptionBgColor</t>
+  </si>
+  <si>
+    <t>设置下拉菜单选中项的背景色</t>
+  </si>
+  <si>
+    <t>selectedOptionFont</t>
+  </si>
+  <si>
+    <t>设置下拉菜单选中项的文本样式</t>
+  </si>
+  <si>
+    <t>XComponent</t>
+  </si>
+  <si>
+    <t>enableAnalyzer</t>
+  </si>
+  <si>
+    <t>设置是否使能AI分析</t>
+  </si>
+  <si>
+    <t>enableSecure</t>
+  </si>
+  <si>
+    <t>设置是否使能隐私模式</t>
+  </si>
+  <si>
+    <t>hdrBrightness</t>
+  </si>
+  <si>
+    <t>设置HAR视频的亮度</t>
+  </si>
+  <si>
+    <t>enableTransparentLayer</t>
+  </si>
+  <si>
+    <t>设置是否使能图层穿透图层</t>
+  </si>
+  <si>
+    <t>screenId</t>
+  </si>
+  <si>
+    <t>设置屏幕ID</t>
+  </si>
+  <si>
+    <t>renderFit</t>
+  </si>
+  <si>
+    <t>renderFit模式</t>
+  </si>
+  <si>
+    <t>line</t>
+  </si>
+  <si>
+    <t>startPoint</t>
+  </si>
+  <si>
+    <t>线条起点坐标</t>
+  </si>
+  <si>
+    <t>endPoint</t>
+  </si>
+  <si>
+    <t>线条终点坐标</t>
+  </si>
+  <si>
+    <t>path</t>
+  </si>
+  <si>
+    <t>commands</t>
+  </si>
+  <si>
+    <t>路径绘制的命令字符串。</t>
+  </si>
+  <si>
+    <t>polygon</t>
+  </si>
+  <si>
+    <t>points</t>
+  </si>
+  <si>
+    <t>设置多边形的顶点坐标列表。</t>
+  </si>
+  <si>
+    <t>rect</t>
+  </si>
+  <si>
+    <t>radius</t>
+  </si>
+  <si>
+    <t>设置圆角半径大小，取值范围≥0。</t>
+  </si>
+  <si>
+    <t>radiusWidth</t>
+  </si>
+  <si>
+    <t>设置圆角的宽度，仅设置宽时宽高一致。</t>
+  </si>
+  <si>
+    <t>radiusHeight</t>
+  </si>
+  <si>
+    <t>设置圆角的高度，仅设置高时宽高一致。</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>viewPort</t>
+  </si>
+  <si>
+    <t>设置形状的视口。</t>
+  </si>
+  <si>
+    <t>mesh</t>
+  </si>
+  <si>
+    <t>包含网格化的数组以及对应的宽和高。</t>
+  </si>
+  <si>
+    <t>stroke</t>
+  </si>
+  <si>
+    <t>设置边框颜色，不设置时，默认没有边框。</t>
+  </si>
+  <si>
+    <t>设置边框宽度。</t>
+  </si>
+  <si>
+    <t>strokeOpacity</t>
+  </si>
+  <si>
+    <t>设置边框透明度。</t>
+  </si>
+  <si>
+    <t>strokeDashOffset</t>
+  </si>
+  <si>
+    <t>设置边框绘制起点的偏移量。</t>
+  </si>
+  <si>
+    <t>strokeDashArray</t>
+  </si>
+  <si>
+    <t>设置边框间隙。取值范围≥0</t>
+  </si>
+  <si>
+    <t>strokeLineCap</t>
+  </si>
+  <si>
+    <t>设置边框端点绘制样式。</t>
+  </si>
+  <si>
+    <t>strokeLineJoin</t>
+  </si>
+  <si>
+    <t>设置边框拐角绘制样式。</t>
+  </si>
+  <si>
+    <t>strokeMiterLimit</t>
+  </si>
+  <si>
+    <t>设置斜接长度与边框宽度比值的极限值。</t>
+  </si>
+  <si>
+    <t>fill</t>
+  </si>
+  <si>
+    <t>设置填充区域的颜色。</t>
+  </si>
+  <si>
+    <t>fillOpacity</t>
+  </si>
+  <si>
+    <t>设置填充区域透明度。</t>
+  </si>
+  <si>
+    <t>antiAlias</t>
+  </si>
+  <si>
+    <t>设置是否开启抗锯齿效果。</t>
+  </si>
+  <si>
+    <t>Video</t>
+  </si>
+  <si>
+    <t>设置组件支持AI分析</t>
+  </si>
+  <si>
+    <t>currentProgressRate</t>
+  </si>
+  <si>
+    <t>视频播放倍速</t>
+  </si>
+  <si>
+    <t>surfaceBackgroundColor</t>
+  </si>
+  <si>
+    <t>设置Video组件中surfacenode的背景色</t>
+  </si>
+  <si>
+    <t>enableShortcutKey</t>
+  </si>
+  <si>
+    <t>设置组件支持快捷键响应</t>
+  </si>
+  <si>
+    <t>list</t>
+  </si>
+  <si>
+    <t>multiSelectable</t>
+  </si>
+  <si>
+    <t>设置list是否支持框选</t>
+  </si>
+  <si>
+    <t>startIndex</t>
+  </si>
+  <si>
+    <t>list组件当前显示的第一个item索引</t>
+  </si>
+  <si>
+    <t>itemStartPos</t>
+  </si>
+  <si>
+    <t>list组件当前显示的第一个item顶部相对于list顶部的距离</t>
+  </si>
+  <si>
+    <t>nestedScroll</t>
+  </si>
+  <si>
+    <t>list组件的嵌套滚动模式</t>
+  </si>
+  <si>
+    <t>maintainVisibleContentPosition</t>
+  </si>
+  <si>
+    <t>list+lazyforeach场景下，增加删除元素是否保持内容位置不变</t>
+  </si>
+  <si>
+    <t>RichEditor</t>
+  </si>
+  <si>
+    <t>enableDataDetector</t>
+  </si>
+  <si>
+    <t>设置是否进行文本特殊实体识别</t>
+  </si>
+  <si>
+    <t>dataDetectorConfig</t>
+  </si>
+  <si>
+    <t>文本识别配置</t>
+  </si>
+  <si>
+    <t>placeholder</t>
+  </si>
+  <si>
+    <t>设置无输入时的提示文本</t>
+  </si>
+  <si>
+    <t>bindSelectionMenu</t>
+  </si>
+  <si>
+    <t>设置自定义选择菜单</t>
+  </si>
+  <si>
+    <t>stopBackPress</t>
+  </si>
+  <si>
+    <t>设置是否阻止返回键传递</t>
+  </si>
+  <si>
+    <t>keyboardAppearance</t>
+  </si>
+  <si>
+    <t>设置键盘外观</t>
+  </si>
+  <si>
+    <t>enableHapticFeedback</t>
+  </si>
+  <si>
+    <t>设置RichEditor是否支持触控反馈</t>
+  </si>
+  <si>
+    <t>maxLength</t>
+  </si>
+  <si>
+    <t>设置最大输入字符数</t>
+  </si>
+  <si>
+    <t>barState</t>
+  </si>
+  <si>
+    <t>设置RichEditor滚动条的显示模式</t>
+  </si>
+  <si>
+    <t>enableKeyboardOnFocus</t>
+  </si>
+  <si>
+    <t>设置RichEditor通过点击以外的方式获焦时，是否主动拉起软键盘</t>
+  </si>
+  <si>
+    <t>undoStyle</t>
+  </si>
+  <si>
+    <t>设置撤销还原时是否保留原内容的样式</t>
+  </si>
+  <si>
+    <t>Flex</t>
+  </si>
+  <si>
+    <t>direction</t>
+  </si>
+  <si>
+    <t>子组件在Flex容器上排列的方向，即主轴的方向。</t>
+  </si>
+  <si>
+    <t>wrap</t>
+  </si>
+  <si>
+    <t>Flex容器是单行/列还是多行/列排列。</t>
+  </si>
+  <si>
+    <t>justifyContent</t>
+  </si>
+  <si>
+    <t>所有子组件在Flex容器主轴上的对齐格式</t>
+  </si>
+  <si>
+    <t>alignItems</t>
+  </si>
+  <si>
+    <t>所有子组件在Flex容器交叉轴上的对齐格式。</t>
+  </si>
+  <si>
+    <t>alignContent</t>
+  </si>
+  <si>
+    <t>交叉轴中有额外的空间时，多行内容的对齐方式。仅在wrap为Wrap或WrapReverse下生效</t>
+  </si>
+  <si>
+    <t>space</t>
+  </si>
+  <si>
+    <t>所有子组件在Flex容器主轴或交叉轴的间距。</t>
+  </si>
+  <si>
+    <t>row</t>
+  </si>
+  <si>
+    <t>横向布局元素间距。</t>
+  </si>
+  <si>
+    <t>设置子组件在垂直方向上的对齐格式。</t>
+  </si>
+  <si>
+    <t>设置子组件在水平方向上的对齐格式。</t>
+  </si>
+  <si>
+    <t>column</t>
+  </si>
+  <si>
+    <t>纵向布局元素垂直方向间距。</t>
+  </si>
+  <si>
+    <t>stack</t>
+  </si>
+  <si>
+    <t>设置子组件在容器内的对齐方式。</t>
+  </si>
+  <si>
+    <t>GridRow</t>
+  </si>
+  <si>
+    <t>gutter</t>
+  </si>
+  <si>
+    <t>栅格布局间距。</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>设置布局列数。</t>
+  </si>
+  <si>
+    <t>breakpoints</t>
+  </si>
+  <si>
+    <t>设置栅格容器组件的断点。</t>
+  </si>
+  <si>
+    <t>reference</t>
+  </si>
+  <si>
+    <t>设置栅格容器组件的断点参照物。</t>
+  </si>
+  <si>
+    <t>设置GridRow中的GridCol垂直主轴方向对齐方式。</t>
+  </si>
+  <si>
+    <t>栅格元素排列方向。</t>
+  </si>
+  <si>
+    <t>gridCol</t>
+  </si>
+  <si>
+    <t>span</t>
+  </si>
+  <si>
+    <t>栅格子组件占用栅格容器组件的列数</t>
+  </si>
+  <si>
+    <t>offset</t>
+  </si>
+  <si>
+    <t>栅格子组件相对于原本位置偏移的列数。</t>
+  </si>
+  <si>
+    <t>gridColOffset</t>
+  </si>
+  <si>
+    <t>order</t>
+  </si>
+  <si>
+    <t>元素的序号，根据栅格子组件的序号，从小到大对栅格子组件做排序。</t>
+  </si>
+  <si>
+    <t>FloderStack</t>
+  </si>
+  <si>
+    <t>upperItems</t>
+  </si>
+  <si>
+    <t>定义悬停态会被移到上半屏的子组件的id，组件id在此数组中的子组件悬停触发时自动避让折叠屏折痕区后移到上半屏，其它组件堆叠在下半屏区域。</t>
+  </si>
+  <si>
+    <t>enableAnimation</t>
+  </si>
+  <si>
+    <t>设置是否使用默认动效。</t>
+  </si>
+  <si>
+    <t>autoHalfFold</t>
+  </si>
+  <si>
+    <t>设置是否开启自动旋转，仅在系统自动旋转关闭时该属性生效。</t>
+  </si>
+  <si>
+    <t>Divider</t>
+  </si>
+  <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>使用水平分割线还是垂直分割线。</t>
+  </si>
+  <si>
+    <t>设置分割线的宽度。</t>
+  </si>
+  <si>
+    <t>color</t>
+  </si>
+  <si>
+    <t>设置分割线的颜色。</t>
+  </si>
+  <si>
+    <t>lineCap</t>
+  </si>
+  <si>
+    <t>设置分割线的端点样式。</t>
+  </si>
+  <si>
+    <t>Blank</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>白填充组件在容器主轴上的最小大小。</t>
+  </si>
+  <si>
+    <t>height</t>
+  </si>
+  <si>
+    <t>组件高度</t>
+  </si>
+  <si>
+    <t>设置空白填充的填充颜色。</t>
+  </si>
+  <si>
+    <t>RowSplit</t>
+  </si>
+  <si>
+    <t>resizeable</t>
+  </si>
+  <si>
+    <t>设置分割线是否可拖拽。</t>
+  </si>
+  <si>
+    <t>divider</t>
+  </si>
+  <si>
+    <t>RowSplit中分割线的样式</t>
+  </si>
+  <si>
+    <t>ColumnSplit</t>
   </si>
 </sst>
 </file>
@@ -63,7 +786,7 @@
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
-  <fonts count="21">
+  <fonts count="23">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -78,6 +801,18 @@
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
+    </font>
+    <font>
+      <sz val="10.5"/>
+      <color rgb="FF333333"/>
+      <name val="微软雅黑"/>
+      <charset val="134"/>
     </font>
     <font>
       <u/>
@@ -559,148 +1294,157 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="4" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="5" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="49">
@@ -977,6 +1721,13 @@
 </styleSheet>
 </file>
 
+<file path=xl/customStorage/customStorage.xml><?xml version="1.0" encoding="utf-8"?>
+<customStorage xmlns="https://web.wps.cn/et/2018/main">
+  <book/>
+  <sheets/>
+</customStorage>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="WPS">
   <a:themeElements>
@@ -1227,16 +1978,17 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:C132"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView tabSelected="1" topLeftCell="A100" workbookViewId="0">
+      <selection activeCell="C65" sqref="C65"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="2" outlineLevelCol="2"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="2"/>
   <cols>
-    <col min="1" max="1" width="9.375" customWidth="1"/>
+    <col min="1" max="1" width="14.875" customWidth="1"/>
     <col min="2" max="2" width="12.625" customWidth="1"/>
+    <col min="3" max="3" width="129.375" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
@@ -1250,7 +2002,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" ht="17.25" spans="1:3">
       <c r="A2" s="2" t="s">
         <v>3</v>
       </c>
@@ -1261,8 +2013,8 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
+    <row r="3" ht="17.25" spans="1:3">
+      <c r="A3" s="4"/>
       <c r="B3" s="3" t="s">
         <v>6</v>
       </c>
@@ -1270,9 +2022,1242 @@
         <v>7</v>
       </c>
     </row>
+    <row r="4" ht="17.25" spans="1:3">
+      <c r="A4" s="4"/>
+      <c r="B4" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" ht="17.25" spans="1:3">
+      <c r="A5" s="4"/>
+      <c r="B5" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" ht="17.25" spans="1:3">
+      <c r="A6" s="4"/>
+      <c r="B6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="7" ht="17.25" spans="1:3">
+      <c r="A7" s="4"/>
+      <c r="B7" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="8" ht="17.25" spans="1:3">
+      <c r="A8" s="4"/>
+      <c r="B8" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="9" ht="17.25" spans="1:3">
+      <c r="A9" s="4"/>
+      <c r="B9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" ht="17.25" spans="1:3">
+      <c r="A10" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" ht="17.25" spans="1:3">
+      <c r="A11" s="6"/>
+      <c r="B11" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" ht="17.25" spans="1:3">
+      <c r="A12" s="6"/>
+      <c r="B12" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" ht="17.25" spans="1:3">
+      <c r="A13" s="6"/>
+      <c r="B13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="14" ht="17.25" spans="1:3">
+      <c r="A14" s="6"/>
+      <c r="B14" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="15" ht="17.25" spans="1:3">
+      <c r="A15" s="6"/>
+      <c r="B15" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" ht="17.25" spans="1:3">
+      <c r="A16" s="6"/>
+      <c r="B16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="17" ht="17.25" spans="1:3">
+      <c r="A17" s="6"/>
+      <c r="B17" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="18" ht="17.25" spans="1:3">
+      <c r="A18" s="6"/>
+      <c r="B18" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="19" ht="17.25" spans="1:3">
+      <c r="A19" s="6"/>
+      <c r="B19" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="20" ht="17.25" spans="1:3">
+      <c r="A20" s="6"/>
+      <c r="B20" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" ht="17.25" spans="1:3">
+      <c r="A21" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="22" ht="17.25" spans="1:3">
+      <c r="A22" s="6"/>
+      <c r="B22" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="23" ht="17.25" spans="1:3">
+      <c r="A23" s="6"/>
+      <c r="B23" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="24" ht="17.25" spans="1:3">
+      <c r="A24" s="6"/>
+      <c r="B24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="25" ht="17.25" spans="1:3">
+      <c r="A25" s="6"/>
+      <c r="B25" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="26" ht="17.25" spans="1:3">
+      <c r="A26" s="6"/>
+      <c r="B26" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="27" ht="17.25" spans="1:3">
+      <c r="A27" s="6"/>
+      <c r="B27" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="28" ht="17.25" spans="1:3">
+      <c r="A28" s="6"/>
+      <c r="B28" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="29" ht="17.25" spans="1:3">
+      <c r="A29" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="30" ht="17.25" spans="1:3">
+      <c r="A30" s="6"/>
+      <c r="B30" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="31" ht="17.25" spans="1:3">
+      <c r="A31" s="6"/>
+      <c r="B31" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="32" ht="17.25" spans="1:3">
+      <c r="A32" s="6"/>
+      <c r="B32" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="33" ht="17.25" spans="1:3">
+      <c r="A33" s="6"/>
+      <c r="B33" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="34" ht="17.25" spans="1:3">
+      <c r="A34" s="6"/>
+      <c r="B34" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" ht="17.25" spans="1:3">
+      <c r="A35" s="6"/>
+      <c r="B35" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="36" ht="17.25" spans="1:3">
+      <c r="A36" s="6"/>
+      <c r="B36" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="37" ht="17.25" spans="1:3">
+      <c r="A37" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="38" ht="17.25" spans="1:3">
+      <c r="A38" s="6"/>
+      <c r="B38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="39" ht="17.25" spans="1:3">
+      <c r="A39" s="6"/>
+      <c r="B39" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="40" ht="17.25" spans="1:3">
+      <c r="A40" s="6"/>
+      <c r="B40" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="41" ht="17.25" spans="1:3">
+      <c r="A41" s="6"/>
+      <c r="B41" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="42" ht="17.25" spans="1:3">
+      <c r="A42" s="6"/>
+      <c r="B42" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="43" ht="17.25" spans="1:3">
+      <c r="A43" s="6"/>
+      <c r="B43" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="44" ht="17.25" spans="1:3">
+      <c r="A44" s="6"/>
+      <c r="B44" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="45" ht="17.25" spans="1:3">
+      <c r="A45" s="5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="46" ht="17.25" spans="1:3">
+      <c r="A46" s="6"/>
+      <c r="B46" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="47" ht="17.25" spans="1:3">
+      <c r="A47" s="6"/>
+      <c r="B47" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="48" ht="17.25" spans="1:3">
+      <c r="A48" s="6"/>
+      <c r="B48" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="49" ht="17.25" spans="1:3">
+      <c r="A49" s="5" t="s">
+        <v>83</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="50" ht="17.25" spans="1:3">
+      <c r="A50" s="6"/>
+      <c r="B50" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="51" ht="17.25" spans="1:3">
+      <c r="A51" s="6"/>
+      <c r="B51" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="52" ht="17.25" spans="1:3">
+      <c r="A52" s="6"/>
+      <c r="B52" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="53" ht="17.25" spans="1:3">
+      <c r="A53" s="6"/>
+      <c r="B53" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="54" ht="17.25" spans="1:3">
+      <c r="A54" s="6"/>
+      <c r="B54" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="55" ht="17.25" spans="1:3">
+      <c r="A55" s="5" t="s">
+        <v>96</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="56" ht="17.25" spans="1:3">
+      <c r="A56" s="6"/>
+      <c r="B56" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="57" ht="17.25" spans="1:3">
+      <c r="A57" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="58" ht="17.25" spans="1:3">
+      <c r="A58" s="5" t="s">
+        <v>104</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="59" ht="17.25" spans="1:3">
+      <c r="A59" s="5" t="s">
+        <v>107</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="60" ht="17.25" spans="1:3">
+      <c r="A60" s="6"/>
+      <c r="B60" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="61" ht="17.25" spans="1:3">
+      <c r="A61" s="6"/>
+      <c r="B61" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="62" ht="17.25" spans="1:3">
+      <c r="A62" s="5" t="s">
+        <v>114</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="63" ht="17.25" spans="1:3">
+      <c r="A63" s="6"/>
+      <c r="B63" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="64" ht="17.25" spans="1:3">
+      <c r="A64" s="6"/>
+      <c r="B64" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" ht="17.25" spans="1:3">
+      <c r="A65" s="6"/>
+      <c r="B65" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="66" ht="17.25" spans="1:3">
+      <c r="A66" s="6"/>
+      <c r="B66" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="67" ht="17.25" spans="1:3">
+      <c r="A67" s="6"/>
+      <c r="B67" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="68" ht="17.25" spans="1:3">
+      <c r="A68" s="6"/>
+      <c r="B68" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="C68" s="3" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="69" ht="17.25" spans="1:3">
+      <c r="A69" s="6"/>
+      <c r="B69" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="C69" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="70" ht="17.25" spans="1:3">
+      <c r="A70" s="6"/>
+      <c r="B70" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="C70" s="3" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="71" ht="17.25" spans="1:3">
+      <c r="A71" s="6"/>
+      <c r="B71" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="C71" s="3" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="72" ht="17.25" spans="1:3">
+      <c r="A72" s="6"/>
+      <c r="B72" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="73" ht="17.25" spans="1:3">
+      <c r="A73" s="6"/>
+      <c r="B73" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="C73" s="3" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="74" ht="17.25" spans="1:3">
+      <c r="A74" s="6"/>
+      <c r="B74" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="C74" s="3" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="75" ht="17.25" spans="1:3">
+      <c r="A75" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="B75" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C75" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="76" ht="17.25" spans="1:3">
+      <c r="A76" s="6"/>
+      <c r="B76" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="C76" s="3" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="77" ht="17.25" spans="1:3">
+      <c r="A77" s="6"/>
+      <c r="B77" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="C77" s="3" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="78" ht="17.25" spans="1:3">
+      <c r="A78" s="6"/>
+      <c r="B78" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="C78" s="3" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="79" ht="17.25" spans="1:3">
+      <c r="A79" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="B79" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C79" s="3" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="80" ht="17.25" spans="1:3">
+      <c r="A80" s="6"/>
+      <c r="B80" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C80" s="3" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="81" ht="17.25" spans="1:3">
+      <c r="A81" s="6"/>
+      <c r="B81" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C81" s="3" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="82" ht="17.25" spans="1:3">
+      <c r="A82" s="6"/>
+      <c r="B82" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C82" s="3" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="83" ht="17.25" spans="1:3">
+      <c r="A83" s="6"/>
+      <c r="B83" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C83" s="3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="84" ht="17.25" spans="1:3">
+      <c r="A84" s="5" t="s">
+        <v>159</v>
+      </c>
+      <c r="B84" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="C84" s="3" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="85" ht="17.25" spans="1:3">
+      <c r="A85" s="6"/>
+      <c r="B85" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="C85" s="3" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="86" ht="17.25" spans="1:3">
+      <c r="A86" s="6"/>
+      <c r="B86" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="C86" s="3" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="87" ht="17.25" spans="1:3">
+      <c r="A87" s="6"/>
+      <c r="B87" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="C87" s="3" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="88" ht="17.25" spans="1:3">
+      <c r="A88" s="6"/>
+      <c r="B88" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="C88" s="3" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="89" ht="17.25" spans="1:3">
+      <c r="A89" s="6"/>
+      <c r="B89" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="C89" s="3" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="90" ht="17.25" spans="1:3">
+      <c r="A90" s="6"/>
+      <c r="B90" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="C90" s="3" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="91" ht="17.25" spans="1:3">
+      <c r="A91" s="6"/>
+      <c r="B91" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="C91" s="3" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="92" ht="17.25" spans="1:3">
+      <c r="A92" s="6"/>
+      <c r="B92" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="C92" s="3" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="93" ht="17.25" spans="1:3">
+      <c r="A93" s="6"/>
+      <c r="B93" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="C93" s="3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="94" ht="17.25" spans="1:3">
+      <c r="A94" s="6"/>
+      <c r="B94" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C94" s="3" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="95" ht="17.25" spans="1:3">
+      <c r="A95" s="5" t="s">
+        <v>182</v>
+      </c>
+      <c r="B95" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C95" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="96" ht="17.25" spans="1:3">
+      <c r="A96" s="6"/>
+      <c r="B96" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="C96" s="3" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="97" ht="17.25" spans="1:3">
+      <c r="A97" s="6"/>
+      <c r="B97" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C97" s="3" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="98" ht="17.25" spans="1:3">
+      <c r="A98" s="6"/>
+      <c r="B98" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C98" s="3" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="99" ht="17.25" spans="1:3">
+      <c r="A99" s="6"/>
+      <c r="B99" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C99" s="3" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="100" ht="17.25" spans="1:3">
+      <c r="A100" s="6"/>
+      <c r="B100" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C100" s="3" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="101" ht="17.25" spans="1:3">
+      <c r="A101" s="5" t="s">
+        <v>195</v>
+      </c>
+      <c r="B101" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C101" s="3" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="102" ht="17.25" spans="1:3">
+      <c r="A102" s="6"/>
+      <c r="B102" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C102" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="103" ht="17.25" spans="1:3">
+      <c r="A103" s="6"/>
+      <c r="B103" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C103" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="104" ht="17.25" spans="1:3">
+      <c r="A104" s="5" t="s">
+        <v>199</v>
+      </c>
+      <c r="B104" s="3" t="s">
+        <v>193</v>
+      </c>
+      <c r="C104" s="3" t="s">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="105" ht="17.25" spans="1:3">
+      <c r="A105" s="6"/>
+      <c r="B105" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C105" s="3" t="s">
+        <v>198</v>
+      </c>
+    </row>
+    <row r="106" ht="17.25" spans="1:3">
+      <c r="A106" s="6"/>
+      <c r="B106" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="C106" s="3" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="107" ht="17.25" spans="1:3">
+      <c r="A107" s="5" t="s">
+        <v>201</v>
+      </c>
+      <c r="B107" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C107" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="108" ht="17.25" spans="1:3">
+      <c r="A108" s="5" t="s">
+        <v>203</v>
+      </c>
+      <c r="B108" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="C108" s="3" t="s">
+        <v>205</v>
+      </c>
+    </row>
+    <row r="109" ht="17.25" spans="1:3">
+      <c r="A109" s="6"/>
+      <c r="B109" s="3" t="s">
+        <v>206</v>
+      </c>
+      <c r="C109" s="3" t="s">
+        <v>207</v>
+      </c>
+    </row>
+    <row r="110" ht="17.25" spans="1:3">
+      <c r="A110" s="6"/>
+      <c r="B110" s="3" t="s">
+        <v>208</v>
+      </c>
+      <c r="C110" s="3" t="s">
+        <v>209</v>
+      </c>
+    </row>
+    <row r="111" ht="17.25" spans="1:3">
+      <c r="A111" s="6"/>
+      <c r="B111" s="3" t="s">
+        <v>210</v>
+      </c>
+      <c r="C111" s="3" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="112" ht="17.25" spans="1:3">
+      <c r="A112" s="6"/>
+      <c r="B112" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C112" s="3" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="113" ht="17.25" spans="1:3">
+      <c r="A113" s="6"/>
+      <c r="B113" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="C113" s="3" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="114" ht="17.25" spans="1:3">
+      <c r="A114" s="5" t="s">
+        <v>214</v>
+      </c>
+      <c r="B114" s="3" t="s">
+        <v>215</v>
+      </c>
+      <c r="C114" s="3" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="115" ht="17.25" spans="1:3">
+      <c r="A115" s="6"/>
+      <c r="B115" s="3" t="s">
+        <v>217</v>
+      </c>
+      <c r="C115" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="116" ht="17.25" spans="1:3">
+      <c r="A116" s="6"/>
+      <c r="B116" s="3" t="s">
+        <v>219</v>
+      </c>
+      <c r="C116" s="3" t="s">
+        <v>218</v>
+      </c>
+    </row>
+    <row r="117" ht="17.25" spans="1:3">
+      <c r="A117" s="6"/>
+      <c r="B117" s="3" t="s">
+        <v>220</v>
+      </c>
+      <c r="C117" s="3" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="118" ht="17.25" spans="1:3">
+      <c r="A118" s="5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B118" s="3" t="s">
+        <v>191</v>
+      </c>
+      <c r="C118" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="119" ht="17.25" spans="1:3">
+      <c r="A119" s="6"/>
+      <c r="B119" s="3" t="s">
+        <v>223</v>
+      </c>
+      <c r="C119" s="3" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="120" ht="17.25" spans="1:3">
+      <c r="A120" s="6"/>
+      <c r="B120" s="3" t="s">
+        <v>225</v>
+      </c>
+      <c r="C120" s="3" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="121" ht="17.25" spans="1:3">
+      <c r="A121" s="6"/>
+      <c r="B121" s="3" t="s">
+        <v>227</v>
+      </c>
+      <c r="C121" s="3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="122" ht="17.25" spans="1:3">
+      <c r="A122" s="5" t="s">
+        <v>229</v>
+      </c>
+      <c r="B122" s="3" t="s">
+        <v>230</v>
+      </c>
+      <c r="C122" s="3" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="123" ht="17.25" spans="1:3">
+      <c r="A123" s="6"/>
+      <c r="B123" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="C123" s="3" t="s">
+        <v>232</v>
+      </c>
+    </row>
+    <row r="124" ht="17.25" spans="1:3">
+      <c r="A124" s="6"/>
+      <c r="B124" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C124" s="3" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="125" ht="17.25" spans="1:3">
+      <c r="A125" s="6"/>
+      <c r="B125" s="3" t="s">
+        <v>235</v>
+      </c>
+      <c r="C125" s="3" t="s">
+        <v>236</v>
+      </c>
+    </row>
+    <row r="126" ht="17.25" spans="1:3">
+      <c r="A126" s="5" t="s">
+        <v>237</v>
+      </c>
+      <c r="B126" s="3" t="s">
+        <v>238</v>
+      </c>
+      <c r="C126" s="3" t="s">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="127" ht="17.25" spans="1:3">
+      <c r="A127" s="6"/>
+      <c r="B127" s="3" t="s">
+        <v>240</v>
+      </c>
+      <c r="C127" s="3" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="128" ht="17.25" spans="1:3">
+      <c r="A128" s="6"/>
+      <c r="B128" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="C128" s="3" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="129" ht="17.25" spans="1:3">
+      <c r="A129" s="5" t="s">
+        <v>243</v>
+      </c>
+      <c r="B129" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C129" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="130" ht="17.25" spans="1:3">
+      <c r="A130" s="6"/>
+      <c r="B130" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C130" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="131" ht="17.25" spans="1:3">
+      <c r="A131" s="5" t="s">
+        <v>248</v>
+      </c>
+      <c r="B131" s="3" t="s">
+        <v>244</v>
+      </c>
+      <c r="C131" s="3" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="132" ht="17.25" spans="1:3">
+      <c r="A132" s="6"/>
+      <c r="B132" s="3" t="s">
+        <v>246</v>
+      </c>
+      <c r="C132" s="3" t="s">
+        <v>247</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A2:A3"/>
+  <mergeCells count="23">
+    <mergeCell ref="A2:A9"/>
+    <mergeCell ref="A10:A20"/>
+    <mergeCell ref="A21:A28"/>
+    <mergeCell ref="A29:A36"/>
+    <mergeCell ref="A37:A44"/>
+    <mergeCell ref="A45:A48"/>
+    <mergeCell ref="A49:A54"/>
+    <mergeCell ref="A55:A56"/>
+    <mergeCell ref="A59:A61"/>
+    <mergeCell ref="A62:A74"/>
+    <mergeCell ref="A75:A78"/>
+    <mergeCell ref="A79:A83"/>
+    <mergeCell ref="A84:A94"/>
+    <mergeCell ref="A95:A100"/>
+    <mergeCell ref="A101:A103"/>
+    <mergeCell ref="A104:A106"/>
+    <mergeCell ref="A108:A113"/>
+    <mergeCell ref="A114:A117"/>
+    <mergeCell ref="A118:A121"/>
+    <mergeCell ref="A122:A125"/>
+    <mergeCell ref="A126:A128"/>
+    <mergeCell ref="A129:A130"/>
+    <mergeCell ref="A131:A132"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <headerFooter/>
